--- a/phone_number.xlsx
+++ b/phone_number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kangleie/Desktop/1031TCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2652FF29-EFCE-E541-A2C3-15F3E7394D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F73FB74-C2CD-5644-A937-F66BB35BD912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26520" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="500" windowWidth="26520" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phone Number and Type" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="66">
   <si>
     <t>国家
 Country</t>
@@ -88,9 +88,6 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>Toll Free (Shared)</t>
-  </si>
-  <si>
     <t>New Zealand</t>
   </si>
   <si>
@@ -222,6 +219,10 @@
   </si>
   <si>
     <t>Hong Kong</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Toll Free </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -300,18 +301,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -337,11 +332,8 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -845,7 +837,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -891,8 +883,8 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
       <c r="J2">
         <v>1.7999999999999999E-2</v>
@@ -931,8 +923,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>65</v>
+      <c r="A4" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -963,8 +955,23 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1035,8 +1042,8 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1065,7 +1072,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1097,10 +1104,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1129,7 +1136,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -1161,10 +1168,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1193,7 +1200,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1225,7 +1232,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1243,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -1257,7 +1264,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1289,7 +1296,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1321,13 +1328,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1353,7 +1360,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1385,7 +1392,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1417,7 +1424,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1449,10 +1456,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1481,10 +1488,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1513,10 +1520,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1545,10 +1552,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1577,10 +1584,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1609,10 +1616,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1641,10 +1648,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1673,10 +1680,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1705,10 +1712,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1737,10 +1744,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -1769,21 +1776,21 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>11</v>
       </c>
       <c r="G31">
@@ -1801,7 +1808,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1830,10 +1840,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1862,10 +1872,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1894,10 +1904,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1926,10 +1936,10 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1958,10 +1968,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
@@ -1990,10 +2000,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -2022,10 +2032,10 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -2054,10 +2064,10 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -2086,10 +2096,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -2118,10 +2128,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -2150,10 +2160,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -2182,21 +2192,21 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
         <v>11</v>
       </c>
       <c r="G44">
@@ -2214,10 +2224,10 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
         <v>61</v>
-      </c>
-      <c r="B45" t="s">
-        <v>62</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -2246,10 +2256,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
